--- a/Doc/url接口/user_url.xlsx
+++ b/Doc/url接口/user_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>url</t>
   </si>
@@ -46,22 +46,34 @@
     <t>user的json对象</t>
   </si>
   <si>
+    <t>查找user</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>1/0</t>
   </si>
   <si>
+    <t>删除user</t>
+  </si>
+  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>user的role属性</t>
   </si>
   <si>
+    <t>修改user</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t>增加user</t>
   </si>
   <si>
     <r>
@@ -72,13 +84,20 @@
         <u/>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>ser?page=XXX&amp;size=&amp;&amp;&amp;</t>
+      <t>ser?page=XXX&amp;size=XXX</t>
     </r>
   </si>
   <si>
     <t>获得Users的json对象的list</t>
+  </si>
+  <si>
+    <t>user的json对象的list</t>
+  </si>
+  <si>
+    <t>获得user的list</t>
   </si>
   <si>
     <t>page为页面index,size为请求的user数量，最大不超过30,超过30将视为30</t>
@@ -89,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +122,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -117,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -129,22 +163,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,9 +174,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,66 +245,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -242,6 +254,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +278,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -270,19 +295,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,157 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -478,26 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +531,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,17 +561,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,148 +585,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1063,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1076,55 +1101,73 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:3">
+    <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="50" customHeight="1"/>

--- a/Doc/url接口/user_url.xlsx
+++ b/Doc/url接口/user_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>url</t>
   </si>
@@ -34,7 +34,10 @@
     <t>参数说明</t>
   </si>
   <si>
-    <t>user/ID</t>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>user/userId</t>
   </si>
   <si>
     <t>GET</t>
@@ -77,6 +80,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>allU</t>
     </r>
     <r>
@@ -87,20 +96,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>ser?page=XXX&amp;size=XXX</t>
+      <t>ser?page=XXX&amp;pageSize=XXX</t>
     </r>
   </si>
   <si>
     <t>获得Users的json对象的list</t>
   </si>
   <si>
-    <t>user的json对象的list</t>
+    <t>user的json对象的list，具体格式见备注</t>
   </si>
   <si>
     <t>获得user的list</t>
   </si>
   <si>
     <t>page为页面index,size为请求的user数量，最大不超过30,超过30将视为30</t>
+  </si>
+  <si>
+    <t>{"users":[{"createTime":null,"email":"root@root.com","id":1,"password":"","role":1,"token":"","userName":"root","valid":1},{"createTime":{"date":7,"day":5,"hours":11,"minutes":46,"month":6,"nanos":0,"seconds":47,"time":1499399207000,"timezoneOffset":-480,"year":117},"email":"1072207255@qq.com","id":5,"password":"","role":0,"token":"","userName":null,"valid":1}]}</t>
   </si>
 </sst>
 </file>
@@ -108,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,13 +134,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,6 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -143,24 +226,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,98 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,25 +300,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,49 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,97 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,22 +501,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,124 +590,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,22 +716,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,8 +742,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,20 +1060,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="35.625" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="35.625" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="16384" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1086,88 +1091,94 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="50" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="50" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="50" customHeight="1"/>

--- a/Doc/url接口/user_url.xlsx
+++ b/Doc/url接口/user_url.xlsx
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +150,121 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,119 +278,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -306,175 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,24 +499,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +559,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,139 +596,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1069,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.625" defaultRowHeight="14.25" outlineLevelCol="6"/>

--- a/Doc/url接口/user_url.xlsx
+++ b/Doc/url接口/user_url.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>url</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>{"users":[{"createTime":null,"email":"root@root.com","id":1,"password":"","role":1,"token":"","userName":"root","valid":1},{"createTime":{"date":7,"day":5,"hours":11,"minutes":46,"month":6,"nanos":0,"seconds":47,"time":1499399207000,"timezoneOffset":-480,"year":117},"email":"1072207255@qq.com","id":5,"password":"","role":0,"token":"","userName":null,"valid":1}]}</t>
+  </si>
+  <si>
+    <t>user/role</t>
+  </si>
+  <si>
+    <t>userId，role</t>
+  </si>
+  <si>
+    <t>[success:integer]</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1077,8 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.625" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1187,7 +1196,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="50" customHeight="1"/>
+    <row r="7" s="1" customFormat="1" ht="50" customHeight="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="8" s="1" customFormat="1" ht="50" customHeight="1"/>
     <row r="9" s="1" customFormat="1" ht="50" customHeight="1"/>
     <row r="10" s="1" customFormat="1" ht="50" customHeight="1"/>
